--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\QM\data\osm\gimmisn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62FB42-7816-475F-A0F3-24E02947F77F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE50D46F-7AA6-4DF4-88F8-3270979344C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="215">
   <si>
     <t>Típus</t>
   </si>
@@ -672,6 +672,12 @@
   </si>
   <si>
     <t>Sződliget</t>
+  </si>
+  <si>
+    <t>szigetmonostor.hu</t>
+  </si>
+  <si>
+    <t>nincs újabb 2020.08.23</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4072,11 +4078,20 @@
       <c r="B153" t="s">
         <v>13</v>
       </c>
-      <c r="C153" t="s">
-        <v>52</v>
+      <c r="C153" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D153">
+        <v>2015</v>
       </c>
       <c r="E153" t="s">
         <v>82</v>
+      </c>
+      <c r="F153" s="6">
+        <v>43615</v>
+      </c>
+      <c r="G153" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -4757,8 +4772,9 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="C40" r:id="rId4" xr:uid="{9C118C4B-DF81-4CD3-9047-2DCC66C9E141}"/>
+    <hyperlink ref="C153" r:id="rId5" xr:uid="{4F65A167-0AEF-4FFC-9103-CD88761D6EA9}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/data_source.xlsx
+++ b/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OSM\github\osm-gimmisn-reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC0CB4B-3105-4D0F-B526-88DF3467BA50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852F427-5E2A-4A95-9E6A-6E55DB5462BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$196</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="232">
   <si>
     <t>Típus</t>
   </si>
@@ -689,9 +689,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>todo</t>
-  </si>
-  <si>
     <t>Dorog</t>
   </si>
   <si>
@@ -726,6 +723,12 @@
   </si>
   <si>
     <t>giro.hu</t>
+  </si>
+  <si>
+    <t>Koronavirus-Mintavétel céljából felkereshető intézmények</t>
+  </si>
+  <si>
+    <t>www.nnk.gov.hu</t>
   </si>
 </sst>
 </file>
@@ -1153,11 +1156,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1320,7 +1321,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
@@ -1330,71 +1331,69 @@
         <v>44166</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H7" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="20">
+        <v>44182</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F9" s="23">
         <v>44172</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="21" t="s">
+      <c r="G9" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="17"/>
-    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>502</v>
-      </c>
-      <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="11">
-        <v>42750</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1407,13 +1406,13 @@
         <v>14</v>
       </c>
       <c r="D11">
-        <v>414</v>
+        <v>502</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="11">
-        <v>43452</v>
+        <v>42750</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>52</v>
@@ -1423,46 +1422,55 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>414</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="11">
+        <v>43452</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17">
         <v>38</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F13" s="24">
         <v>43453</v>
       </c>
-      <c r="G12" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>217</v>
+      <c r="G13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1473,69 +1481,62 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
         <v>451</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>41641</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="17">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17">
         <v>525</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F16" s="24">
         <v>43047</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="11">
-        <v>43809</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="17" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1547,13 +1548,20 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>217</v>
+        <v>116</v>
+      </c>
+      <c r="F17" s="11">
+        <v>43809</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1564,22 +1572,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>510</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="11">
-        <v>43384</v>
+        <v>55</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1590,13 +1589,22 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>510</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="F19" s="11">
+        <v>43384</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>217</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1607,18 +1615,12 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="5">
-        <v>44146</v>
-      </c>
-      <c r="G20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1630,12 +1632,18 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5">
+        <v>44146</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>217</v>
       </c>
     </row>
@@ -1647,20 +1655,13 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>552</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="11">
-        <v>43431</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1674,13 +1675,13 @@
         <v>14</v>
       </c>
       <c r="D23">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F23" s="11">
-        <v>41571</v>
+        <v>43431</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" t="s">
@@ -1698,13 +1699,13 @@
         <v>14</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>526</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F24" s="11">
-        <v>43124</v>
+        <v>41571</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" t="s">
@@ -1719,13 +1720,20 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>217</v>
+        <v>119</v>
+      </c>
+      <c r="F25" s="11">
+        <v>43124</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,7 +1747,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>217</v>
@@ -1753,19 +1761,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="5">
-        <v>44066</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>89</v>
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1776,13 +1778,19 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>217</v>
+        <v>90</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="5">
+        <v>44066</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1796,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>217</v>
@@ -1810,22 +1818,13 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>484</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="11">
-        <v>43088</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1836,13 +1835,23 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>484</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="F31" s="11">
+        <v>43088</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H31" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1852,21 +1861,13 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32">
-        <v>523</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="11">
-        <v>42615</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" t="s">
-        <v>51</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1876,20 +1877,20 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>500</v>
+        <v>523</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F33" s="11">
-        <v>42073</v>
+        <v>42615</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1900,20 +1901,20 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" s="11">
-        <v>41983</v>
+        <v>42073</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1927,16 +1928,17 @@
         <v>14</v>
       </c>
       <c r="D35">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="5">
-        <v>44178</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>217</v>
+        <v>121</v>
+      </c>
+      <c r="F35" s="11">
+        <v>41983</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1950,13 +1952,13 @@
         <v>14</v>
       </c>
       <c r="D36">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F36" s="5">
-        <v>44174</v>
+        <v>44178</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>217</v>
@@ -1973,13 +1975,13 @@
         <v>14</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>544</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" s="5">
-        <v>44178</v>
+        <v>44174</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>217</v>
@@ -1993,12 +1995,17 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="F38" s="5">
+        <v>44178</v>
+      </c>
       <c r="G38" s="5" t="s">
         <v>217</v>
       </c>
@@ -2014,7 +2021,7 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
@@ -2029,17 +2036,12 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40">
-        <v>432</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="5">
-        <v>44178</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
         <v>217</v>
       </c>
@@ -2055,10 +2057,10 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <v>182</v>
+        <v>432</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="5">
         <v>44178</v>
@@ -2074,23 +2076,20 @@
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>42</v>
+      <c r="C42" t="s">
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>1070</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" s="5">
-        <v>44158</v>
+        <v>44178</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2100,23 +2099,23 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" t="s">
-        <v>16</v>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>58</v>
+        <v>1070</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F43" s="5">
-        <v>44178</v>
+        <v>44158</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H43" t="s">
-        <v>209</v>
+      <c r="H43" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2127,19 +2126,22 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>1090</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F44" s="5">
-        <v>44174</v>
+        <v>44178</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>217</v>
+      </c>
+      <c r="H44" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2150,12 +2152,17 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="D45">
+        <v>1090</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="F45" s="5">
+        <v>44174</v>
+      </c>
       <c r="G45" s="5" t="s">
         <v>217</v>
       </c>
@@ -2168,17 +2175,12 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46">
-        <v>465</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="5">
-        <v>44178</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F46" s="5"/>
       <c r="G46" s="5" t="s">
         <v>217</v>
       </c>
@@ -2194,13 +2196,13 @@
         <v>14</v>
       </c>
       <c r="D47">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F47" s="5">
-        <v>44175</v>
+        <v>44178</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>217</v>
@@ -2217,13 +2219,13 @@
         <v>14</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="5">
-        <v>44178</v>
+        <v>44175</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>217</v>
@@ -2240,13 +2242,13 @@
         <v>14</v>
       </c>
       <c r="D49">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F49" s="5">
-        <v>44174</v>
+        <v>44178</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>217</v>
@@ -2263,19 +2265,16 @@
         <v>14</v>
       </c>
       <c r="D50">
-        <v>169</v>
+        <v>563</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" s="5">
-        <v>44178</v>
+        <v>44174</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="H50" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,10 +2288,10 @@
         <v>14</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F51" s="5">
         <v>44178</v>
@@ -2300,6 +2299,9 @@
       <c r="G51" s="5" t="s">
         <v>217</v>
       </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -2309,12 +2311,17 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="F52" s="5">
+        <v>44178</v>
+      </c>
       <c r="G52" s="5" t="s">
         <v>217</v>
       </c>
@@ -2327,17 +2334,12 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="5">
-        <v>44174</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="5" t="s">
         <v>217</v>
       </c>
@@ -2353,13 +2355,13 @@
         <v>14</v>
       </c>
       <c r="D54">
-        <v>548</v>
+        <v>462</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F54" s="5">
-        <v>44178</v>
+        <v>44174</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>217</v>
@@ -2373,22 +2375,19 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D55">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="7">
+        <v>33</v>
+      </c>
+      <c r="F55" s="5">
         <v>44178</v>
       </c>
-      <c r="G55" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" t="s">
-        <v>209</v>
+      <c r="G55" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2399,19 +2398,22 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="5">
+        <v>18</v>
+      </c>
+      <c r="F56" s="7">
         <v>44178</v>
       </c>
-      <c r="G56" s="5" t="s">
-        <v>217</v>
+      <c r="G56" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H56" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2425,13 +2427,13 @@
         <v>14</v>
       </c>
       <c r="D57">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57" s="5">
-        <v>44174</v>
+        <v>44178</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>217</v>
@@ -2448,19 +2450,16 @@
         <v>14</v>
       </c>
       <c r="D58">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="5">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="H58" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2474,17 +2473,19 @@
         <v>14</v>
       </c>
       <c r="D59">
-        <v>492</v>
+        <v>587</v>
       </c>
       <c r="E59" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="11">
-        <v>42323</v>
-      </c>
-      <c r="G59" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="F59" s="5">
+        <v>44175</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="H59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2498,13 +2499,13 @@
         <v>14</v>
       </c>
       <c r="D60">
-        <v>236</v>
+        <v>492</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F60" s="11">
-        <v>42111</v>
+        <v>42323</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" t="s">
@@ -2522,13 +2523,13 @@
         <v>14</v>
       </c>
       <c r="D61">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" s="11">
-        <v>43091</v>
+        <v>42111</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" t="s">
@@ -2543,14 +2544,20 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>219</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11" t="s">
-        <v>217</v>
+        <v>126</v>
+      </c>
+      <c r="F62" s="11">
+        <v>43091</v>
+      </c>
+      <c r="G62" s="11"/>
+      <c r="H62" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2564,9 +2571,10 @@
         <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
-      </c>
-      <c r="G63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2578,20 +2586,13 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
-      </c>
-      <c r="F64" s="11">
-        <v>43102</v>
-      </c>
-      <c r="G64" s="11"/>
-      <c r="H64" t="s">
-        <v>51</v>
+        <v>64</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2602,20 +2603,20 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D65">
-        <v>475</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F65" s="11">
-        <v>43444</v>
+        <v>43102</v>
       </c>
       <c r="G65" s="11"/>
       <c r="H65" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2629,13 +2630,13 @@
         <v>16</v>
       </c>
       <c r="D66">
-        <v>396</v>
+        <v>475</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F66" s="11">
-        <v>43453</v>
+        <v>43444</v>
       </c>
       <c r="G66" s="11"/>
       <c r="H66" t="s">
@@ -2652,11 +2653,19 @@
       <c r="C67" t="s">
         <v>16</v>
       </c>
+      <c r="D67">
+        <v>396</v>
+      </c>
       <c r="E67" t="s">
-        <v>192</v>
-      </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+        <v>129</v>
+      </c>
+      <c r="F67" s="11">
+        <v>43453</v>
+      </c>
+      <c r="G67" s="11"/>
+      <c r="H67" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -2668,19 +2677,11 @@
       <c r="C68" t="s">
         <v>16</v>
       </c>
-      <c r="D68">
-        <v>46</v>
-      </c>
       <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" s="11">
-        <v>43704</v>
-      </c>
-      <c r="G68" s="11"/>
-      <c r="H68" t="s">
-        <v>209</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -2690,18 +2691,21 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>223</v>
+        <v>46</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="6">
-        <v>44175</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="F69" s="11">
+        <v>43704</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2714,10 +2718,10 @@
         <v>14</v>
       </c>
       <c r="D70">
-        <v>539</v>
+        <v>223</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" s="6">
         <v>44175</v>
@@ -2732,14 +2736,18 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>539</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F71" s="6">
+        <v>44175</v>
+      </c>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2749,20 +2757,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
-      </c>
-      <c r="F72" s="11">
-        <v>43137</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" t="s">
-        <v>51</v>
+        <v>65</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2773,13 +2774,20 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>66</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>217</v>
+        <v>131</v>
+      </c>
+      <c r="F73" s="11">
+        <v>43137</v>
+      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2790,13 +2798,14 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -2806,20 +2815,13 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75">
-        <v>2483</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="6">
-        <v>44048</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>217</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -2829,22 +2831,19 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D76">
-        <v>24</v>
+        <v>2483</v>
       </c>
       <c r="E76" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="11">
-        <v>43438</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H76" t="s">
-        <v>51</v>
+        <v>112</v>
+      </c>
+      <c r="F76" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2855,10 +2854,22 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>24</v>
       </c>
       <c r="E77" t="s">
-        <v>67</v>
+        <v>134</v>
+      </c>
+      <c r="F77" s="11">
+        <v>43438</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2869,20 +2880,10 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="11">
-        <v>42180</v>
-      </c>
-      <c r="G78" s="11"/>
-      <c r="H78" t="s">
-        <v>209</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2893,22 +2894,20 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D79">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F79" s="11">
-        <v>43439</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>217</v>
-      </c>
+        <v>42180</v>
+      </c>
+      <c r="G79" s="11"/>
       <c r="H79" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2922,15 +2921,17 @@
         <v>14</v>
       </c>
       <c r="D80">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="F80" s="11">
-        <v>43089</v>
-      </c>
-      <c r="G80" s="11"/>
+        <v>43439</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="H80" t="s">
         <v>51</v>
       </c>
@@ -2946,15 +2947,18 @@
         <v>14</v>
       </c>
       <c r="D81">
-        <v>518</v>
+        <v>60</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
-      </c>
-      <c r="F81" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="F81" s="11">
+        <v>43089</v>
+      </c>
+      <c r="G81" s="11"/>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -2964,11 +2968,18 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>518</v>
       </c>
       <c r="E82" t="s">
-        <v>68</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F82" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2978,20 +2989,10 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
-      </c>
-      <c r="D83">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E83" t="s">
-        <v>135</v>
-      </c>
-      <c r="F83" s="11">
-        <v>43461</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -3005,13 +3006,13 @@
         <v>14</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F84" s="11">
-        <v>43073</v>
+        <v>43461</v>
       </c>
       <c r="G84" s="11"/>
       <c r="H84" t="s">
@@ -3029,13 +3030,13 @@
         <v>14</v>
       </c>
       <c r="D85">
-        <v>572</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F85" s="11">
-        <v>43461</v>
+        <v>43073</v>
       </c>
       <c r="G85" s="11"/>
       <c r="H85" t="s">
@@ -3050,20 +3051,20 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86">
-        <v>50</v>
+        <v>572</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" s="11">
-        <v>43434</v>
+        <v>43461</v>
       </c>
       <c r="G86" s="11"/>
       <c r="H86" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3076,11 +3077,19 @@
       <c r="C87" t="s">
         <v>16</v>
       </c>
+      <c r="D87">
+        <v>50</v>
+      </c>
       <c r="E87" t="s">
-        <v>194</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="F87" s="11">
+        <v>43434</v>
+      </c>
+      <c r="G87" s="11"/>
+      <c r="H87" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3090,21 +3099,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>139</v>
-      </c>
-      <c r="F88" s="11">
-        <v>43080</v>
-      </c>
-      <c r="G88" s="11"/>
-      <c r="H88" t="s">
-        <v>51</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -3117,15 +3118,18 @@
         <v>14</v>
       </c>
       <c r="D89">
-        <v>555</v>
+        <v>52</v>
       </c>
       <c r="E89" t="s">
-        <v>100</v>
-      </c>
-      <c r="F89" s="6">
-        <v>44174</v>
-      </c>
-      <c r="G89" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="F89" s="11">
+        <v>43080</v>
+      </c>
+      <c r="G89" s="11"/>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -3138,18 +3142,15 @@
         <v>14</v>
       </c>
       <c r="D90">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="11">
-        <v>38504</v>
-      </c>
-      <c r="G90" s="11"/>
-      <c r="H90" t="s">
-        <v>51</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F90" s="6">
+        <v>44174</v>
+      </c>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -3162,13 +3163,13 @@
         <v>14</v>
       </c>
       <c r="D91">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F91" s="11">
-        <v>39791</v>
+        <v>38504</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" t="s">
@@ -3183,13 +3184,21 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>495</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
-      </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="F92" s="11">
+        <v>39791</v>
+      </c>
+      <c r="G92" s="11"/>
+      <c r="H92" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
@@ -3199,21 +3208,13 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>142</v>
-      </c>
-      <c r="F93" s="11">
-        <v>42773</v>
-      </c>
-      <c r="G93" s="11"/>
-      <c r="H93" t="s">
-        <v>51</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
@@ -3223,10 +3224,20 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>118</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>142</v>
+      </c>
+      <c r="F94" s="11">
+        <v>42773</v>
+      </c>
+      <c r="G94" s="11"/>
+      <c r="H94" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3237,20 +3248,10 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
-      </c>
-      <c r="D95">
-        <v>559</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>143</v>
-      </c>
-      <c r="F95" s="11">
-        <v>42720</v>
-      </c>
-      <c r="G95" s="11"/>
-      <c r="H95" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -3261,13 +3262,20 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>559</v>
       </c>
       <c r="E96" t="s">
-        <v>69</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>217</v>
+        <v>143</v>
+      </c>
+      <c r="F96" s="11">
+        <v>42720</v>
+      </c>
+      <c r="G96" s="11"/>
+      <c r="H96" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3278,18 +3286,14 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
-      </c>
-      <c r="D97">
-        <v>646</v>
+        <v>52</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
-      </c>
-      <c r="F97" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G97" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -3299,11 +3303,18 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>646</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F98" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -3313,10 +3324,10 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -3327,18 +3338,11 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
-      </c>
-      <c r="F100" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3351,18 +3355,15 @@
         <v>14</v>
       </c>
       <c r="D101">
-        <v>423</v>
+        <v>149</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
-      </c>
-      <c r="F101" s="11">
-        <v>43048</v>
-      </c>
-      <c r="G101" s="11"/>
-      <c r="H101" t="s">
-        <v>51</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F101" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -3375,13 +3376,13 @@
         <v>14</v>
       </c>
       <c r="D102">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F102" s="11">
-        <v>42340</v>
+        <v>43048</v>
       </c>
       <c r="G102" s="11"/>
       <c r="H102" t="s">
@@ -3396,13 +3397,20 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>527</v>
       </c>
       <c r="E103" t="s">
-        <v>70</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>217</v>
+        <v>145</v>
+      </c>
+      <c r="F103" s="11">
+        <v>42340</v>
+      </c>
+      <c r="G103" s="11"/>
+      <c r="H103" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3413,20 +3421,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
-      </c>
-      <c r="D104">
-        <v>551</v>
+        <v>52</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
-      </c>
-      <c r="F104" s="11">
-        <v>43446</v>
-      </c>
-      <c r="G104" s="11"/>
-      <c r="H104" t="s">
-        <v>209</v>
+        <v>70</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3437,10 +3438,20 @@
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>551</v>
       </c>
       <c r="E105" t="s">
-        <v>225</v>
+        <v>146</v>
+      </c>
+      <c r="F105" s="11">
+        <v>43446</v>
+      </c>
+      <c r="G105" s="11"/>
+      <c r="H105" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3451,10 +3462,10 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3467,20 +3478,8 @@
       <c r="C107" t="s">
         <v>16</v>
       </c>
-      <c r="D107">
-        <v>39</v>
-      </c>
       <c r="E107" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" s="7">
-        <v>44063</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H107" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3491,20 +3490,22 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D108">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
-      </c>
-      <c r="F108" s="11">
-        <v>43109</v>
-      </c>
-      <c r="G108" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="F108" s="7">
+        <v>44063</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>217</v>
+      </c>
       <c r="H108" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3518,13 +3519,13 @@
         <v>14</v>
       </c>
       <c r="D109">
-        <v>499</v>
+        <v>48</v>
       </c>
       <c r="E109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F109" s="11">
-        <v>41843</v>
+        <v>43109</v>
       </c>
       <c r="G109" s="11"/>
       <c r="H109" t="s">
@@ -3539,10 +3540,20 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>199</v>
+        <v>148</v>
+      </c>
+      <c r="F110" s="11">
+        <v>41843</v>
+      </c>
+      <c r="G110" s="11"/>
+      <c r="H110" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -3553,20 +3564,10 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111">
-        <v>549</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>149</v>
-      </c>
-      <c r="F111" s="11">
-        <v>43082</v>
-      </c>
-      <c r="G111" s="11"/>
-      <c r="H111" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3577,10 +3578,20 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D112">
+        <v>549</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>149</v>
+      </c>
+      <c r="F112" s="11">
+        <v>43082</v>
+      </c>
+      <c r="G112" s="11"/>
+      <c r="H112" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -3591,20 +3602,10 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>14</v>
-      </c>
-      <c r="D113">
-        <v>498</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>152</v>
-      </c>
-      <c r="F113" s="11">
-        <v>41358</v>
-      </c>
-      <c r="G113" s="11"/>
-      <c r="H113" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -3615,13 +3616,20 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D114">
+        <v>498</v>
       </c>
       <c r="E114" t="s">
-        <v>72</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>217</v>
+        <v>152</v>
+      </c>
+      <c r="F114" s="11">
+        <v>41358</v>
+      </c>
+      <c r="G114" s="11"/>
+      <c r="H114" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -3632,18 +3640,12 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
-      </c>
-      <c r="F115" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G115" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3658,17 +3660,16 @@
         <v>14</v>
       </c>
       <c r="D116">
-        <v>35</v>
+        <v>305</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
-      </c>
-      <c r="F116" s="11">
-        <v>43474</v>
-      </c>
-      <c r="G116" s="11"/>
-      <c r="H116" t="s">
-        <v>51</v>
+        <v>98</v>
+      </c>
+      <c r="F116" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -3682,13 +3683,13 @@
         <v>14</v>
       </c>
       <c r="D117">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F117" s="11">
-        <v>43451</v>
+        <v>43474</v>
       </c>
       <c r="G117" s="11"/>
       <c r="H117" t="s">
@@ -3703,13 +3704,20 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D118">
+        <v>54</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>217</v>
+        <v>151</v>
+      </c>
+      <c r="F118" s="11">
+        <v>43451</v>
+      </c>
+      <c r="G118" s="11"/>
+      <c r="H118" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -3720,20 +3728,13 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
-      </c>
-      <c r="D119">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E119" t="s">
-        <v>153</v>
-      </c>
-      <c r="F119" s="11">
-        <v>43419</v>
-      </c>
-      <c r="G119" s="11"/>
-      <c r="H119" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -3747,15 +3748,18 @@
         <v>14</v>
       </c>
       <c r="D120">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>93</v>
-      </c>
-      <c r="F120" s="6">
-        <v>44175</v>
-      </c>
-      <c r="G120" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="F120" s="11">
+        <v>43419</v>
+      </c>
+      <c r="G120" s="11"/>
+      <c r="H120" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
@@ -3768,18 +3772,15 @@
         <v>14</v>
       </c>
       <c r="D121">
-        <v>524</v>
+        <v>55</v>
       </c>
       <c r="E121" t="s">
-        <v>154</v>
-      </c>
-      <c r="F121" s="11">
-        <v>42136</v>
-      </c>
-      <c r="G121" s="11"/>
-      <c r="H121" t="s">
-        <v>51</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F121" s="6">
+        <v>44175</v>
+      </c>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
@@ -3792,13 +3793,13 @@
         <v>14</v>
       </c>
       <c r="D122">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="E122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F122" s="11">
-        <v>42086</v>
+        <v>42136</v>
       </c>
       <c r="G122" s="11"/>
       <c r="H122" t="s">
@@ -3813,10 +3814,20 @@
         <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D123">
+        <v>493</v>
       </c>
       <c r="E123" t="s">
-        <v>226</v>
+        <v>155</v>
+      </c>
+      <c r="F123" s="11">
+        <v>42086</v>
+      </c>
+      <c r="G123" s="11"/>
+      <c r="H123" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3827,20 +3838,10 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124">
-        <v>562</v>
+        <v>16</v>
       </c>
       <c r="E124" t="s">
-        <v>156</v>
-      </c>
-      <c r="F124" s="11">
-        <v>42485</v>
-      </c>
-      <c r="G124" s="11"/>
-      <c r="H124" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -3851,13 +3852,20 @@
         <v>13</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D125">
+        <v>562</v>
       </c>
       <c r="E125" t="s">
-        <v>74</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>217</v>
+        <v>156</v>
+      </c>
+      <c r="F125" s="11">
+        <v>42485</v>
+      </c>
+      <c r="G125" s="11"/>
+      <c r="H125" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -3868,20 +3876,13 @@
         <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E126" t="s">
-        <v>157</v>
-      </c>
-      <c r="F126" s="11">
-        <v>43108</v>
-      </c>
-      <c r="G126" s="11"/>
-      <c r="H126" t="s">
-        <v>51</v>
+        <v>74</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -3892,13 +3893,20 @@
         <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <v>43</v>
       </c>
       <c r="E127" t="s">
-        <v>75</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>217</v>
+        <v>157</v>
+      </c>
+      <c r="F127" s="11">
+        <v>43108</v>
+      </c>
+      <c r="G127" s="11"/>
+      <c r="H127" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -3909,10 +3917,13 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="E128" t="s">
-        <v>221</v>
+        <v>75</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3923,20 +3934,10 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="E129" t="s">
-        <v>158</v>
-      </c>
-      <c r="F129" s="11">
-        <v>43083</v>
-      </c>
-      <c r="G129" s="11"/>
-      <c r="H129" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3947,11 +3948,20 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="D130">
+        <v>31</v>
+      </c>
       <c r="E130" t="s">
-        <v>200</v>
+        <v>158</v>
+      </c>
+      <c r="F130" s="11">
+        <v>43083</v>
+      </c>
+      <c r="G130" s="11"/>
+      <c r="H130" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3962,13 +3972,11 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
-        <v>52</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D131" s="12"/>
       <c r="E131" t="s">
-        <v>223</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3979,20 +3987,13 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132">
-        <v>567</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
-        <v>159</v>
-      </c>
-      <c r="F132" s="11">
-        <v>43453</v>
-      </c>
-      <c r="G132" s="11"/>
-      <c r="H132" t="s">
-        <v>209</v>
+        <v>222</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4003,20 +4004,20 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D133">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="E133" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F133" s="11">
-        <v>43475</v>
+        <v>43453</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4030,13 +4031,13 @@
         <v>14</v>
       </c>
       <c r="D134">
-        <v>62</v>
+        <v>478</v>
       </c>
       <c r="E134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F134" s="11">
-        <v>43502</v>
+        <v>43475</v>
       </c>
       <c r="G134" s="11"/>
       <c r="H134" t="s">
@@ -4054,15 +4055,18 @@
         <v>14</v>
       </c>
       <c r="D135">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="E135" t="s">
-        <v>95</v>
-      </c>
-      <c r="F135" s="6">
-        <v>44175</v>
-      </c>
-      <c r="G135" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="F135" s="11">
+        <v>43502</v>
+      </c>
+      <c r="G135" s="11"/>
+      <c r="H135" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
@@ -4075,18 +4079,15 @@
         <v>14</v>
       </c>
       <c r="D136">
-        <v>469</v>
+        <v>104</v>
       </c>
       <c r="E136" t="s">
-        <v>160</v>
-      </c>
-      <c r="F136" s="11">
-        <v>42969</v>
-      </c>
-      <c r="G136" s="11"/>
-      <c r="H136" t="s">
-        <v>51</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F136" s="6">
+        <v>44175</v>
+      </c>
+      <c r="G136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -4096,13 +4097,20 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D137">
+        <v>469</v>
       </c>
       <c r="E137" t="s">
-        <v>76</v>
-      </c>
-      <c r="G137" s="8" t="s">
-        <v>217</v>
+        <v>160</v>
+      </c>
+      <c r="F137" s="11">
+        <v>42969</v>
+      </c>
+      <c r="G137" s="11"/>
+      <c r="H137" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4113,22 +4121,13 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>77</v>
-      </c>
-      <c r="F138" s="11">
-        <v>43081</v>
-      </c>
-      <c r="G138" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H138" t="s">
-        <v>51</v>
+        <v>76</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4142,15 +4141,17 @@
         <v>14</v>
       </c>
       <c r="D139">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="E139" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="F139" s="11">
-        <v>42067</v>
-      </c>
-      <c r="G139" s="11"/>
+        <v>43081</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="H139" t="s">
         <v>51</v>
       </c>
@@ -4163,10 +4164,20 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>232</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>161</v>
+      </c>
+      <c r="F140" s="11">
+        <v>42067</v>
+      </c>
+      <c r="G140" s="11"/>
+      <c r="H140" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4180,7 +4191,7 @@
         <v>16</v>
       </c>
       <c r="E141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4191,20 +4202,10 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
-      </c>
-      <c r="F142" s="11">
-        <v>41569</v>
-      </c>
-      <c r="G142" s="11"/>
-      <c r="H142" t="s">
-        <v>51</v>
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4218,13 +4219,13 @@
         <v>14</v>
       </c>
       <c r="D143">
-        <v>401</v>
+        <v>528</v>
       </c>
       <c r="E143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F143" s="11">
-        <v>43025</v>
+        <v>41569</v>
       </c>
       <c r="G143" s="11"/>
       <c r="H143" t="s">
@@ -4239,20 +4240,20 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>66</v>
+        <v>401</v>
       </c>
       <c r="E144" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F144" s="11">
-        <v>43452</v>
+        <v>43025</v>
       </c>
       <c r="G144" s="11"/>
       <c r="H144" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4263,20 +4264,20 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D145">
-        <v>501</v>
+        <v>66</v>
       </c>
       <c r="E145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F145" s="11">
-        <v>41739</v>
+        <v>43452</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4290,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="D146">
-        <v>45</v>
+        <v>501</v>
       </c>
       <c r="E146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F146" s="11">
-        <v>43025</v>
+        <v>41739</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" t="s">
@@ -4311,10 +4312,20 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D147">
+        <v>45</v>
       </c>
       <c r="E147" t="s">
-        <v>203</v>
+        <v>168</v>
+      </c>
+      <c r="F147" s="11">
+        <v>43025</v>
+      </c>
+      <c r="G147" s="11"/>
+      <c r="H147" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4325,20 +4336,10 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E148" t="s">
-        <v>176</v>
-      </c>
-      <c r="F148" s="11">
-        <v>43437</v>
-      </c>
-      <c r="G148" s="11"/>
-      <c r="H148" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4349,13 +4350,20 @@
         <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D149">
+        <v>22</v>
       </c>
       <c r="E149" t="s">
-        <v>78</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>217</v>
+        <v>176</v>
+      </c>
+      <c r="F149" s="11">
+        <v>43437</v>
+      </c>
+      <c r="G149" s="11"/>
+      <c r="H149" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4366,20 +4374,13 @@
         <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>169</v>
-      </c>
-      <c r="F150" s="11">
-        <v>42767</v>
-      </c>
-      <c r="G150" s="11"/>
-      <c r="H150" t="s">
-        <v>51</v>
+        <v>78</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4393,13 +4394,13 @@
         <v>14</v>
       </c>
       <c r="D151">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="E151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F151" s="11">
-        <v>43455</v>
+        <v>42767</v>
       </c>
       <c r="G151" s="11"/>
       <c r="H151" t="s">
@@ -4414,13 +4415,20 @@
         <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>52</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>217</v>
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>32</v>
+      </c>
+      <c r="E152" t="s">
+        <v>170</v>
+      </c>
+      <c r="F152" s="11">
+        <v>43455</v>
+      </c>
+      <c r="G152" s="11"/>
+      <c r="H152" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -4431,55 +4439,48 @@
         <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153">
+        <v>52</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154">
         <v>584</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E154" t="s">
         <v>102</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F154" s="6">
         <v>44175</v>
       </c>
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>12</v>
-      </c>
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
         <v>16</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E155" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>12</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155">
-        <v>529</v>
-      </c>
-      <c r="E155" t="s">
-        <v>173</v>
-      </c>
-      <c r="F155" s="11">
-        <v>42942</v>
-      </c>
-      <c r="G155" s="11"/>
-      <c r="H155" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -4493,13 +4494,13 @@
         <v>14</v>
       </c>
       <c r="D156">
-        <v>20</v>
+        <v>529</v>
       </c>
       <c r="E156" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F156" s="11">
-        <v>43101</v>
+        <v>42942</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" t="s">
@@ -4517,13 +4518,13 @@
         <v>14</v>
       </c>
       <c r="D157">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E157" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F157" s="11">
-        <v>43453</v>
+        <v>43101</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" t="s">
@@ -4538,10 +4539,20 @@
         <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D158">
+        <v>100</v>
       </c>
       <c r="E158" t="s">
-        <v>227</v>
+        <v>174</v>
+      </c>
+      <c r="F158" s="11">
+        <v>43453</v>
+      </c>
+      <c r="G158" s="11"/>
+      <c r="H158" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -4552,13 +4563,10 @@
         <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>52</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G159" s="8" t="s">
-        <v>217</v>
+        <v>16</v>
+      </c>
+      <c r="E159" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -4571,8 +4579,8 @@
       <c r="C160" t="s">
         <v>52</v>
       </c>
-      <c r="E160" t="s">
-        <v>80</v>
+      <c r="E160" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>217</v>
@@ -4585,23 +4593,14 @@
       <c r="B161" t="s">
         <v>13</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D161">
-        <v>2015</v>
+      <c r="C161" t="s">
+        <v>52</v>
       </c>
       <c r="E161" t="s">
-        <v>81</v>
-      </c>
-      <c r="F161" s="6">
-        <v>43615</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H161" t="s">
-        <v>212</v>
+        <v>80</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -4611,21 +4610,23 @@
       <c r="B162" t="s">
         <v>13</v>
       </c>
-      <c r="C162" t="s">
-        <v>14</v>
+      <c r="C162" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D162">
-        <v>53</v>
+        <v>2015</v>
       </c>
       <c r="E162" t="s">
-        <v>172</v>
-      </c>
-      <c r="F162" s="11">
-        <v>43476</v>
-      </c>
-      <c r="G162" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="F162" s="6">
+        <v>43615</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="H162" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -4639,17 +4640,15 @@
         <v>14</v>
       </c>
       <c r="D163">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="F163" s="11">
-        <v>42828</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>217</v>
-      </c>
+        <v>43476</v>
+      </c>
+      <c r="G163" s="11"/>
       <c r="H163" t="s">
         <v>51</v>
       </c>
@@ -4665,15 +4664,17 @@
         <v>14</v>
       </c>
       <c r="D164">
-        <v>530</v>
+        <v>128</v>
       </c>
       <c r="E164" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="F164" s="11">
-        <v>42797</v>
-      </c>
-      <c r="G164" s="11"/>
+        <v>42828</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="H164" t="s">
         <v>51</v>
       </c>
@@ -4689,15 +4690,18 @@
         <v>14</v>
       </c>
       <c r="D165">
-        <v>15</v>
+        <v>530</v>
       </c>
       <c r="E165" t="s">
-        <v>91</v>
-      </c>
-      <c r="F165" s="6">
-        <v>44174</v>
-      </c>
-      <c r="G165" s="6"/>
+        <v>175</v>
+      </c>
+      <c r="F165" s="11">
+        <v>42797</v>
+      </c>
+      <c r="G165" s="11"/>
+      <c r="H165" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
@@ -4710,10 +4714,10 @@
         <v>14</v>
       </c>
       <c r="D166">
-        <v>585</v>
+        <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F166" s="6">
         <v>44174</v>
@@ -4731,18 +4735,15 @@
         <v>14</v>
       </c>
       <c r="D167">
-        <v>370</v>
+        <v>585</v>
       </c>
       <c r="E167" t="s">
-        <v>210</v>
-      </c>
-      <c r="F167" s="11">
-        <v>43087</v>
-      </c>
-      <c r="G167" s="11"/>
-      <c r="H167" t="s">
-        <v>51</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F167" s="6">
+        <v>44174</v>
+      </c>
+      <c r="G167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -4752,13 +4753,20 @@
         <v>13</v>
       </c>
       <c r="C168" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <v>370</v>
       </c>
       <c r="E168" t="s">
-        <v>82</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="F168" s="11">
+        <v>43087</v>
+      </c>
+      <c r="G168" s="11"/>
+      <c r="H168" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -4769,20 +4777,13 @@
         <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
-      </c>
-      <c r="D169">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="E169" t="s">
-        <v>177</v>
-      </c>
-      <c r="F169" s="11">
-        <v>42095</v>
-      </c>
-      <c r="G169" s="11"/>
-      <c r="H169" t="s">
-        <v>209</v>
+        <v>82</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -4793,20 +4794,20 @@
         <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D170">
-        <v>520</v>
+        <v>398</v>
       </c>
       <c r="E170" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F170" s="11">
-        <v>42048</v>
+        <v>42095</v>
       </c>
       <c r="G170" s="11"/>
       <c r="H170" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -4820,13 +4821,13 @@
         <v>14</v>
       </c>
       <c r="D171">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F171" s="11">
-        <v>41417</v>
+        <v>42048</v>
       </c>
       <c r="G171" s="11"/>
       <c r="H171" t="s">
@@ -4841,10 +4842,20 @@
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D172">
+        <v>521</v>
       </c>
       <c r="E172" t="s">
-        <v>205</v>
+        <v>181</v>
+      </c>
+      <c r="F172" s="11">
+        <v>41417</v>
+      </c>
+      <c r="G172" s="11"/>
+      <c r="H172" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,20 +4866,10 @@
         <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173">
-        <v>514</v>
+        <v>16</v>
       </c>
       <c r="E173" t="s">
-        <v>183</v>
-      </c>
-      <c r="F173" s="11">
-        <v>42111</v>
-      </c>
-      <c r="G173" s="11"/>
-      <c r="H173" t="s">
-        <v>51</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -4879,10 +4880,20 @@
         <v>13</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D174">
+        <v>514</v>
       </c>
       <c r="E174" t="s">
-        <v>206</v>
+        <v>183</v>
+      </c>
+      <c r="F174" s="11">
+        <v>42111</v>
+      </c>
+      <c r="G174" s="11"/>
+      <c r="H174" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -4893,20 +4904,10 @@
         <v>13</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="E175" t="s">
-        <v>178</v>
-      </c>
-      <c r="F175" s="11">
-        <v>43447</v>
-      </c>
-      <c r="G175" s="11"/>
-      <c r="H175" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,15 +4921,18 @@
         <v>14</v>
       </c>
       <c r="D176">
-        <v>568</v>
+        <v>352</v>
       </c>
       <c r="E176" t="s">
-        <v>101</v>
-      </c>
-      <c r="F176" s="6">
-        <v>44175</v>
-      </c>
-      <c r="G176" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="F176" s="11">
+        <v>43447</v>
+      </c>
+      <c r="G176" s="11"/>
+      <c r="H176" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
@@ -4941,18 +4945,15 @@
         <v>14</v>
       </c>
       <c r="D177">
-        <v>531</v>
+        <v>568</v>
       </c>
       <c r="E177" t="s">
-        <v>179</v>
-      </c>
-      <c r="F177" s="11">
-        <v>40945</v>
-      </c>
-      <c r="G177" s="11"/>
-      <c r="H177" t="s">
-        <v>51</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="F177" s="6">
+        <v>44175</v>
+      </c>
+      <c r="G177" s="6"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
@@ -4962,10 +4963,20 @@
         <v>13</v>
       </c>
       <c r="C178" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D178">
+        <v>531</v>
       </c>
       <c r="E178" t="s">
-        <v>224</v>
+        <v>179</v>
+      </c>
+      <c r="F178" s="11">
+        <v>40945</v>
+      </c>
+      <c r="G178" s="11"/>
+      <c r="H178" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -4976,20 +4987,10 @@
         <v>13</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E179" t="s">
-        <v>180</v>
-      </c>
-      <c r="F179" s="11">
-        <v>43017</v>
-      </c>
-      <c r="G179" s="11"/>
-      <c r="H179" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5003,13 +5004,13 @@
         <v>14</v>
       </c>
       <c r="D180">
-        <v>483</v>
+        <v>125</v>
       </c>
       <c r="E180" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F180" s="11">
-        <v>42808</v>
+        <v>43017</v>
       </c>
       <c r="G180" s="11"/>
       <c r="H180" t="s">
@@ -5027,13 +5028,13 @@
         <v>14</v>
       </c>
       <c r="D181">
-        <v>65</v>
+        <v>483</v>
       </c>
       <c r="E181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F181" s="11">
-        <v>43451</v>
+        <v>42808</v>
       </c>
       <c r="G181" s="11"/>
       <c r="H181" t="s">
@@ -5048,13 +5049,20 @@
         <v>13</v>
       </c>
       <c r="C182" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D182">
+        <v>65</v>
       </c>
       <c r="E182" t="s">
-        <v>83</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>217</v>
+        <v>185</v>
+      </c>
+      <c r="F182" s="11">
+        <v>43451</v>
+      </c>
+      <c r="G182" s="11"/>
+      <c r="H182" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5068,7 +5076,7 @@
         <v>52</v>
       </c>
       <c r="E183" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>217</v>
@@ -5082,20 +5090,13 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="E184" t="s">
-        <v>186</v>
-      </c>
-      <c r="F184" s="11">
-        <v>43444</v>
-      </c>
-      <c r="G184" s="11"/>
-      <c r="H184" t="s">
-        <v>209</v>
+        <v>84</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -5106,20 +5107,20 @@
         <v>13</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D185">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F185" s="11">
-        <v>43102</v>
+        <v>43444</v>
       </c>
       <c r="G185" s="11"/>
       <c r="H185" t="s">
-        <v>51</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -5133,13 +5134,13 @@
         <v>14</v>
       </c>
       <c r="D186">
-        <v>580</v>
+        <v>47</v>
       </c>
       <c r="E186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F186" s="11">
-        <v>43144</v>
+        <v>43102</v>
       </c>
       <c r="G186" s="11"/>
       <c r="H186" t="s">
@@ -5154,19 +5155,20 @@
         <v>13</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D187">
-        <v>2481</v>
+        <v>580</v>
       </c>
       <c r="E187" t="s">
-        <v>111</v>
-      </c>
-      <c r="F187" s="6">
-        <v>44048</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>217</v>
+        <v>188</v>
+      </c>
+      <c r="F187" s="11">
+        <v>43144</v>
+      </c>
+      <c r="G187" s="11"/>
+      <c r="H187" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -5177,22 +5179,19 @@
         <v>13</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D188">
-        <v>33</v>
+        <v>2481</v>
       </c>
       <c r="E188" t="s">
-        <v>85</v>
-      </c>
-      <c r="F188" s="11">
-        <v>43080</v>
-      </c>
-      <c r="G188" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="H188" t="s">
-        <v>51</v>
+        <v>111</v>
+      </c>
+      <c r="F188" s="6">
+        <v>44048</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -5206,15 +5205,20 @@
         <v>14</v>
       </c>
       <c r="D189">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E189" t="s">
-        <v>92</v>
-      </c>
-      <c r="F189" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G189" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="F189" s="11">
+        <v>43080</v>
+      </c>
+      <c r="G189" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H189" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -5224,14 +5228,18 @@
         <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D190">
+        <v>34</v>
       </c>
       <c r="E190" t="s">
-        <v>86</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F190" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G190" s="6"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
@@ -5241,10 +5249,13 @@
         <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E191" t="s">
-        <v>208</v>
+        <v>86</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -5255,18 +5266,11 @@
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>14</v>
-      </c>
-      <c r="D192">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>94</v>
-      </c>
-      <c r="F192" s="6">
-        <v>44178</v>
-      </c>
-      <c r="G192" s="6"/>
+        <v>208</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
@@ -5279,18 +5283,15 @@
         <v>14</v>
       </c>
       <c r="D193">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E193" t="s">
-        <v>189</v>
-      </c>
-      <c r="F193" s="11">
-        <v>43132</v>
-      </c>
-      <c r="G193" s="11"/>
-      <c r="H193" t="s">
-        <v>51</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F193" s="6">
+        <v>44178</v>
+      </c>
+      <c r="G193" s="6"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -5300,13 +5301,20 @@
         <v>13</v>
       </c>
       <c r="C194" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D194">
+        <v>44</v>
       </c>
       <c r="E194" t="s">
-        <v>87</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>217</v>
+        <v>189</v>
+      </c>
+      <c r="F194" s="11">
+        <v>43132</v>
+      </c>
+      <c r="G194" s="11"/>
+      <c r="H194" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -5317,38 +5325,56 @@
         <v>13</v>
       </c>
       <c r="C195" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195">
+        <v>52</v>
+      </c>
+      <c r="E195" t="s">
+        <v>87</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196">
         <v>496</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E196" t="s">
         <v>190</v>
       </c>
-      <c r="F195" s="11">
+      <c r="F196" s="11">
         <v>42148</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" t="s">
+      <c r="G196" s="11"/>
+      <c r="H196" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H195" xr:uid="{AA858AE1-81AF-4D8F-942B-45804D1AB520}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:H195">
-    <sortCondition ref="E10:E195"/>
+  <autoFilter ref="A1:H196" xr:uid="{AA858AE1-81AF-4D8F-942B-45804D1AB520}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:H196">
+    <sortCondition ref="E11:E196"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C42" r:id="rId4" xr:uid="{9C118C4B-DF81-4CD3-9047-2DCC66C9E141}"/>
-    <hyperlink ref="C161" r:id="rId5" xr:uid="{4F65A167-0AEF-4FFC-9103-CD88761D6EA9}"/>
+    <hyperlink ref="C43" r:id="rId4" xr:uid="{9C118C4B-DF81-4CD3-9047-2DCC66C9E141}"/>
+    <hyperlink ref="C162" r:id="rId5" xr:uid="{4F65A167-0AEF-4FFC-9103-CD88761D6EA9}"/>
     <hyperlink ref="C6" r:id="rId6" xr:uid="{5B8A923E-AA74-4C73-B0E9-CE6F8FBA5B74}"/>
     <hyperlink ref="C7" r:id="rId7" xr:uid="{F86CD0A1-1BE3-4F85-9DB4-1176D4B1B414}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{77D9EFA7-6EA5-4653-93E8-9DB15F4A1EF9}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{77D9EFA7-6EA5-4653-93E8-9DB15F4A1EF9}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{81BFD01B-0739-4D55-AB5A-0EAD132108C7}"/>
   </hyperlinks>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId9"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>